--- a/Owl Custom/PT Melting.xlsx
+++ b/Owl Custom/PT Melting.xlsx
@@ -1078,6 +1078,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1095,12 +1096,30 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1137,8 +1156,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1151,6 +1182,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1162,7 +1253,7 @@
   <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+      <selection pane="topLeft" activeCell="V24" activeCellId="0" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1171,13 +1262,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="9.2"/>
@@ -1288,58 +1379,61 @@
       <c r="A2" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>5.17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>10.1</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>1323.15</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>3471</v>
       </c>
       <c r="W2" s="0" t="n">
@@ -1362,58 +1456,61 @@
       <c r="A3" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>107.868</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="1" t="n">
         <v>1.93</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="1" t="n">
         <v>7.5762</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="1" t="n">
         <v>10.5</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="1" t="n">
         <v>1234.15</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <v>2435</v>
       </c>
       <c r="W3" s="0" t="n">
@@ -1433,58 +1530,61 @@
       <c r="A4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>26.982</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="2" t="n">
         <v>5.9858</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="2" t="n">
         <v>933.4</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="2" t="n">
         <v>2792</v>
       </c>
       <c r="W4" s="0" t="n">
@@ -1510,52 +1610,57 @@
       <c r="A5" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="2" t="n">
         <v>5.9738</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="2" t="n">
         <v>13.7</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="2" t="n">
         <v>1267.15</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="2" t="n">
         <v>2880</v>
       </c>
       <c r="W5" s="0" t="n">
@@ -1575,55 +1680,59 @@
       <c r="A6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>39.948</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="n">
         <v>15.7596</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="2" t="n">
         <v>0.00178</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="2" t="n">
         <v>83.96</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="2" t="n">
         <v>87.3</v>
       </c>
       <c r="W6" s="0" t="n">
@@ -1649,58 +1758,61 @@
       <c r="A7" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>74.922</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="0" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="2" t="n">
         <v>2.18</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="2" t="n">
         <v>9.7886</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="2" t="n">
         <v>5.78</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="2" t="n">
         <v>1090.15</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="2" t="n">
         <v>887</v>
       </c>
       <c r="W7" s="0" t="n">
@@ -1726,61 +1838,63 @@
       <c r="A8" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="2" t="n">
         <v>9.3</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="2" t="n">
         <v>575.15</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="2" t="n">
         <v>610</v>
       </c>
       <c r="W8" s="0" t="n">
@@ -1803,58 +1917,61 @@
       <c r="A9" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>196.967</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="0" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="2" t="n">
         <v>2.54</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="2" t="n">
         <v>9.2255</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="2" t="n">
         <v>19.3</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="2" t="n">
         <v>1337.73</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="2" t="n">
         <v>3129</v>
       </c>
       <c r="W9" s="0" t="n">
@@ -1874,58 +1991,61 @@
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>10.811</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="0" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="2" t="n">
         <v>8.298</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="2" t="n">
         <v>2573.15</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="2" t="n">
         <v>4200</v>
       </c>
       <c r="W10" s="0" t="n">
@@ -1951,58 +2071,61 @@
       <c r="A11" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="3" t="n">
         <v>137.327</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="0" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="3" t="n">
         <v>2.8</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="3" t="n">
         <v>5.2117</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="3" t="n">
         <v>3.59</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="3" t="n">
         <v>1002.15</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="3" t="n">
         <v>2170</v>
       </c>
       <c r="W11" s="0" t="n">
@@ -2028,58 +2151,61 @@
       <c r="A12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3" t="n">
         <v>9.012</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="0" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="3" t="n">
         <v>1.57</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="3" t="n">
         <v>9.3227</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="3" t="n">
         <v>1.85</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="3" t="n">
         <v>1560.15</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="3" t="n">
         <v>2742</v>
       </c>
       <c r="W12" s="0" t="n">
@@ -2105,45 +2231,53 @@
       <c r="A13" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3" t="n">
         <v>157</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="0" t="s">
+      <c r="K13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="n">
         <v>37</v>
       </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
       <c r="X13" s="0" t="s">
         <v>71</v>
       </c>
@@ -2158,58 +2292,61 @@
       <c r="A14" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="3" t="n">
         <v>208.98</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="0" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="3" t="n">
         <v>2.02</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="3" t="n">
         <v>7.2856</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="3" t="n">
         <v>9.81</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="3" t="n">
         <v>544.67</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="3" t="n">
         <v>1837</v>
       </c>
       <c r="W14" s="0" t="n">
@@ -2235,52 +2372,57 @@
       <c r="A15" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="3" t="n">
         <v>247</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="0" t="s">
+      <c r="K15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="3" t="n">
         <v>6.1979</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="3" t="n">
         <v>1259.15</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="3" t="n">
         <v>983</v>
       </c>
       <c r="W15" s="0" t="n">
@@ -2300,58 +2442,61 @@
       <c r="A16" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="3" t="n">
         <v>79.904</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="0" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="3" t="n">
         <v>1.1</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="3" t="n">
         <v>2.96</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="3" t="n">
         <v>11.8138</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="3" t="n">
         <v>3.12</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="3" t="n">
         <v>266.05</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="3" t="n">
         <v>332</v>
       </c>
       <c r="W16" s="0" t="n">
@@ -2377,58 +2522,61 @@
       <c r="A17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="3" t="n">
         <v>12.011</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="0" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="3" t="n">
         <v>0.91</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="3" t="n">
         <v>2.55</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="3" t="n">
         <v>11.2603</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="3" t="n">
         <v>2.27</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="3" t="n">
         <v>3948.15</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="3" t="n">
         <v>4300</v>
       </c>
       <c r="W17" s="0" t="n">
@@ -2451,58 +2599,61 @@
       <c r="A18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="3" t="n">
         <v>40.078</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="0" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="3" t="n">
         <v>6.1132</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="3" t="n">
         <v>1.54</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="3" t="n">
         <v>1112.15</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="3" t="n">
         <v>1757</v>
       </c>
       <c r="W18" s="0" t="n">
@@ -2528,58 +2679,61 @@
       <c r="A19" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="3" t="n">
         <v>112.411</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="0" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="3" t="n">
         <v>1.69</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="3" t="n">
         <v>8.9938</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="3" t="n">
         <v>8.69</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="3" t="n">
         <v>594.33</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="3" t="n">
         <v>1040</v>
       </c>
       <c r="W19" s="0" t="n">
@@ -2602,55 +2756,59 @@
       <c r="A20" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="3" t="n">
         <v>140.116</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="0" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="3" t="n">
         <v>1.12</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="3" t="n">
         <v>5.5387</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="3" t="n">
         <v>6.77</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="3" t="n">
         <v>1071.15</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="3" t="n">
         <v>3716</v>
       </c>
       <c r="W20" s="0" t="n">

--- a/Owl Custom/PT Melting.xlsx
+++ b/Owl Custom/PT Melting.xlsx
@@ -1252,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V24" activeCellId="0" sqref="V24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C97" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U119" activeCellId="0" sqref="U119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2834,49 +2834,54 @@
       <c r="B21" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="3" t="n">
         <v>251</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="0" t="s">
+      <c r="K21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="3" t="n">
         <v>6.2817</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="3" t="n">
         <v>1925.15</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="3" t="n">
         <v>1173</v>
       </c>
       <c r="W21" s="0" t="n">
@@ -2899,55 +2904,58 @@
       <c r="B22" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="3" t="n">
         <v>35.453</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="0" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="3" t="n">
         <v>3.16</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="3" t="n">
         <v>12.9676</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="3" t="n">
         <v>0.00321</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="3" t="n">
         <v>172.31</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="3" t="n">
         <v>239.11</v>
       </c>
       <c r="W22" s="0" t="n">
@@ -2976,49 +2984,54 @@
       <c r="B23" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="3" t="n">
         <v>247</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="0" t="s">
+      <c r="K23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="3" t="n">
         <v>5.9915</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="3" t="n">
         <v>1340.15</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="3" t="n">
         <v>3383</v>
       </c>
       <c r="W23" s="0" t="n">
@@ -3041,39 +3054,48 @@
       <c r="B24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="3" t="n">
         <v>285</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" s="0" t="s">
+      <c r="K24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
       <c r="Y24" s="0" t="n">
         <v>1996</v>
       </c>
@@ -3088,55 +3110,58 @@
       <c r="B25" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="3" t="n">
         <v>58.933</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="0" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="3" t="n">
         <v>7.881</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="3" t="n">
         <v>8.86</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="3" t="n">
         <v>1768.15</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="3" t="n">
         <v>3200</v>
       </c>
       <c r="W25" s="0" t="n">
@@ -3162,55 +3187,58 @@
       <c r="B26" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="3" t="n">
         <v>51.996</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="0" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="3" t="n">
         <v>1.66</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="3" t="n">
         <v>6.7665</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="3" t="n">
         <v>7.15</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="3" t="n">
         <v>2130.15</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="3" t="n">
         <v>2944</v>
       </c>
       <c r="W26" s="0" t="n">
@@ -3236,55 +3264,58 @@
       <c r="B27" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="3" t="n">
         <v>132.905</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="3" t="n">
         <v>3.8939</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="3" t="n">
         <v>1.87</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="3" t="n">
         <v>301.7</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="3" t="n">
         <v>944</v>
       </c>
       <c r="W27" s="0" t="n">
@@ -3313,55 +3344,58 @@
       <c r="B28" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="3" t="n">
         <v>63.546</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="0" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="3" t="n">
         <v>7.7264</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="3" t="n">
         <v>8.96</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28" s="3" t="n">
         <v>1357.75</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="3" t="n">
         <v>2835</v>
       </c>
       <c r="W28" s="0" t="n">
@@ -3384,42 +3418,50 @@
       <c r="B29" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="3" t="n">
         <v>262</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="3" t="n">
         <v>157</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" s="0" t="s">
+      <c r="K29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3" t="n">
         <v>39</v>
       </c>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
       <c r="X29" s="0" t="s">
         <v>116</v>
       </c>
@@ -3437,39 +3479,48 @@
       <c r="B30" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="3" t="n">
         <v>271</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" s="0" t="s">
+      <c r="K30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
       <c r="Y30" s="0" t="n">
         <v>1994</v>
       </c>
@@ -3484,52 +3535,56 @@
       <c r="B31" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="3" t="n">
         <v>162.5</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="0" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="3" t="n">
         <v>1.22</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31" s="3" t="n">
         <v>5.9389</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31" s="3" t="n">
         <v>8.55</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="U31" s="3" t="n">
         <v>1680.15</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31" s="3" t="n">
         <v>2840</v>
       </c>
       <c r="W31" s="0" t="n">
@@ -3555,52 +3610,56 @@
       <c r="B32" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="3" t="n">
         <v>167.259</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="0" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="3" t="n">
         <v>1.24</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32" s="3" t="n">
         <v>6.1077</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32" s="3" t="n">
         <v>9.07</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="U32" s="3" t="n">
         <v>1795.15</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="3" t="n">
         <v>3503</v>
       </c>
       <c r="W32" s="0" t="n">
@@ -3626,48 +3685,54 @@
       <c r="B33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="0" t="s">
+      <c r="K33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33" s="3" t="n">
         <v>6.42</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="T33" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="U33" s="3" t="n">
         <v>1133.15</v>
       </c>
+      <c r="V33" s="3"/>
       <c r="W33" s="0" t="n">
         <v>123</v>
       </c>
@@ -3688,52 +3753,56 @@
       <c r="B34" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="3" t="n">
         <v>151.964</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P34" s="0" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="Q34" s="3" t="n">
         <v>2.6</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34" s="3" t="n">
         <v>5.6704</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="T34" s="3" t="n">
         <v>5.24</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="U34" s="3" t="n">
         <v>1095.15</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="V34" s="3" t="n">
         <v>1802</v>
       </c>
       <c r="W34" s="0" t="n">
@@ -3759,55 +3828,58 @@
       <c r="B35" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="3" t="n">
         <v>18.998</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="0" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="Q35" s="3" t="n">
         <v>0.57</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="R35" s="3" t="n">
         <v>3.98</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35" s="3" t="n">
         <v>17.4228</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35" s="3" t="n">
         <v>0.0017</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="U35" s="3" t="n">
         <v>53.63</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="V35" s="3" t="n">
         <v>85.03</v>
       </c>
       <c r="W35" s="0" t="n">
@@ -3836,55 +3908,58 @@
       <c r="B36" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="3" t="n">
         <v>55.845</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" s="0" t="s">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="Q36" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="R36" s="3" t="n">
         <v>1.83</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36" s="3" t="n">
         <v>7.9024</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T36" s="3" t="n">
         <v>7.87</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="U36" s="3" t="n">
         <v>1808.15</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="V36" s="3" t="n">
         <v>3134</v>
       </c>
       <c r="W36" s="0" t="n">
@@ -3907,39 +3982,48 @@
       <c r="B37" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="3" t="n">
         <v>289</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" s="0" t="s">
+      <c r="K37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
       <c r="Y37" s="0" t="n">
         <v>1999</v>
       </c>
@@ -3957,42 +4041,50 @@
       <c r="B38" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="3" t="n">
         <v>157</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="0" t="s">
+      <c r="K38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38" s="3" t="n">
         <v>6.5</v>
       </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
       <c r="W38" s="0" t="n">
         <v>103</v>
       </c>
@@ -4013,55 +4105,58 @@
       <c r="B39" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="3" t="n">
         <v>223</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="0" t="s">
+      <c r="K39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="S39" s="3" t="n">
         <v>4.0727</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="T39" s="3" t="n">
         <v>1.87</v>
       </c>
-      <c r="U39" s="0" t="n">
+      <c r="U39" s="3" t="n">
         <v>300.15</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39" s="3" t="n">
         <v>950</v>
       </c>
       <c r="W39" s="0" t="n">
@@ -4087,55 +4182,58 @@
       <c r="B40" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="3" t="n">
         <v>69.723</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="F40" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="H40" s="0" t="n">
+      <c r="F40" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H40" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="0" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q40" s="0" t="n">
+      <c r="Q40" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="R40" s="3" t="n">
         <v>1.81</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="S40" s="3" t="n">
         <v>5.9993</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="T40" s="3" t="n">
         <v>5.91</v>
       </c>
-      <c r="U40" s="0" t="n">
+      <c r="U40" s="3" t="n">
         <v>302.91</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="V40" s="3" t="n">
         <v>2477</v>
       </c>
       <c r="W40" s="0" t="n">
@@ -4164,52 +4262,56 @@
       <c r="B41" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="3" t="n">
         <v>157.25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" s="0" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q41" s="0" t="n">
+      <c r="Q41" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="R41" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="S41" s="3" t="n">
         <v>6.1501</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="T41" s="3" t="n">
         <v>7.9</v>
       </c>
-      <c r="U41" s="0" t="n">
+      <c r="U41" s="3" t="n">
         <v>1585.15</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="V41" s="3" t="n">
         <v>3546</v>
       </c>
       <c r="W41" s="0" t="n">
@@ -4235,55 +4337,58 @@
       <c r="B42" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="3" t="n">
         <v>72.64</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="0" t="s">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q42" s="0" t="n">
+      <c r="Q42" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="R42" s="3" t="n">
         <v>2.01</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="S42" s="3" t="n">
         <v>7.8994</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="T42" s="3" t="n">
         <v>5.32</v>
       </c>
-      <c r="U42" s="0" t="n">
+      <c r="U42" s="3" t="n">
         <v>1211.45</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="V42" s="3" t="n">
         <v>3106</v>
       </c>
       <c r="W42" s="0" t="n">
@@ -4312,55 +4417,58 @@
       <c r="B43" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="3" t="n">
         <v>1.007</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="0" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="0" t="n">
+      <c r="Q43" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="R43" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="S43" s="3" t="n">
         <v>13.5984</v>
       </c>
-      <c r="T43" s="0" t="n">
+      <c r="T43" s="3" t="n">
         <v>8.99E-005</v>
       </c>
-      <c r="U43" s="0" t="n">
+      <c r="U43" s="3" t="n">
         <v>14.175</v>
       </c>
-      <c r="V43" s="0" t="n">
+      <c r="V43" s="3" t="n">
         <v>20.28</v>
       </c>
       <c r="W43" s="0" t="n">
@@ -4389,49 +4497,54 @@
       <c r="B44" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="3" t="n">
         <v>4.002</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" s="0" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="0" t="n">
+      <c r="Q44" s="3" t="n">
         <v>0.49</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="n">
         <v>24.5874</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T44" s="3" t="n">
         <v>0.000179</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="n">
         <v>4.22</v>
       </c>
       <c r="W44" s="0" t="n">
@@ -4457,55 +4570,58 @@
       <c r="B45" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="3" t="n">
         <v>178.49</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="0" t="s">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="Q45" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="R45" s="3" t="n">
         <v>1.3</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45" s="3" t="n">
         <v>6.8251</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="T45" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="U45" s="0" t="n">
+      <c r="U45" s="3" t="n">
         <v>2500.15</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45" s="3" t="n">
         <v>4876</v>
       </c>
       <c r="W45" s="0" t="n">
@@ -4531,55 +4647,58 @@
       <c r="B46" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="3" t="n">
         <v>200.59</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="0" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" s="0" t="n">
+      <c r="Q46" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="R46" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S46" s="0" t="n">
+      <c r="S46" s="3" t="n">
         <v>10.4375</v>
       </c>
-      <c r="T46" s="0" t="n">
+      <c r="T46" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="U46" s="0" t="n">
+      <c r="U46" s="3" t="n">
         <v>234.43</v>
       </c>
-      <c r="V46" s="0" t="n">
+      <c r="V46" s="3" t="n">
         <v>630</v>
       </c>
       <c r="W46" s="0" t="n">
